--- a/database.xlsx
+++ b/database.xlsx
@@ -1,66 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25227"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tpb\pengkom\tubes1\TubesPengkom11\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591044F7-2FCD-4F5D-B8DF-A456A0399EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="user" sheetId="1" r:id="rId1"/>
+    <sheet name="user" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="log" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Saldo</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -79,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -359,33 +386,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>No.</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Saldo</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>No.</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Time In</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Gate In</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>KM In</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Time Out</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Gate Out</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>KM Out</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Jarak</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>semarang</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>12</v>
+      </c>
+      <c r="G2" t="n">
         <v>5</v>
+      </c>
+      <c r="H2">
+        <f>ABS($G$2 - $D$2)</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -391,7 +391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F2"/>
@@ -402,33 +402,48 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>No.</t>
+          <t>Mail</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Mail</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
           <t>Saldo</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Bagas</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -442,71 +457,251 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="19" customWidth="1" min="1" max="1"/>
+    <col width="20.7109375" customWidth="1" min="2" max="2"/>
+    <col width="20.28515625" customWidth="1" min="4" max="4"/>
+    <col width="18.140625" customWidth="1" min="5" max="5"/>
+    <col width="14.42578125" customWidth="1" min="8" max="8"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>No.</t>
+          <t>Time In</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Time In</t>
+          <t>Gate In</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Gate In</t>
+          <t>KM In</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>KM In</t>
+          <t>Time Out</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Time Out</t>
+          <t>Gate Out</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Gate Out</t>
+          <t>KM Out</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>KM Out</t>
+          <t>Jarak</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Jarak</t>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Golongan</t>
         </is>
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11:35:33</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>semarang</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>12</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <f>ABS($G$2 - $D$2)</f>
-        <v/>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11:35:33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Serpong</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>11:38:45</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Juanda</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11:38:45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Solo</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12:09:47</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12:09:47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>test2@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>12:18:25</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tambak Sumur</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12:18:25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Tanjung Priok</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>12:23:34</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tambak Oso</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12:23:34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Juanda</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>12:37:13</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bawen</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12:37:13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>473.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>12:44:40</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bawen</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12:44:40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>test2@mail.com</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -3,26 +3,34 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="log" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -43,14 +51,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -386,18 +397,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="20.7109375" customWidth="1" min="1" max="1"/>
+    <col width="19.42578125" customWidth="1" min="2" max="2"/>
+    <col width="15.5703125" customWidth="1" min="4" max="4"/>
+    <col width="12.28515625" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -427,26 +444,27 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bagas@mail.com</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>Bagas</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+      <c r="D2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E2" t="n">
         <v>10000</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -459,8 +477,8 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -503,10 +521,8 @@
           <t>KM Out</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Jarak</t>
-        </is>
+      <c r="G1" t="n">
+        <v>0</v>
       </c>
       <c r="H1" t="inlineStr">
         <is>
@@ -522,58 +538,97 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11:35:33</t>
+          <t>13:17:48</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Semarang</t>
+          <t>Tambak Oso</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11:35:33</t>
+          <t>13:17:48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Serpong</t>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11:38:45</t>
+          <t>13:21:07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Juanda</t>
+          <t>Tambak Sumur</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13:21:07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>806.5</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
         </is>
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>13:23:16</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bawen</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11:38:45</t>
+          <t>13:23:16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Solo</t>
+          <t>Tanjung Priok</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>bagas@mail.com</t>
+          <t>test1@mail.com</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12:09:47</t>
+          <t>13:29:26</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -583,24 +638,24 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12:09:47</t>
+          <t>13:29:26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Taman Mini</t>
+          <t>Tanjung Priok</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>test2@mail.com</t>
+          <t>bagas@mail.com</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12:18:25</t>
+          <t>13:32:37</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -610,36 +665,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12:18:25</t>
+          <t>13:32:37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tanjung Priok</t>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>12:23:34</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Tambak Oso</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12:23:34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Juanda</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>test1@mail.com</t>
@@ -647,60 +687,16 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>12:37:13</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Bawen</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12:37:13</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Taman Mini</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>473.6</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>12:44:40</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Bawen</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12:44:40</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Taman Mini</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>test2@mail.com</t>
+          <t>bagas@mail.com</t>
         </is>
       </c>
     </row>

--- a/database.xlsx
+++ b/database.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="user" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="database user" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="log" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -402,10 +402,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -461,9 +461,28 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -475,10 +494,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H7:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -682,21 +701,271 @@
     <row r="7">
       <c r="H7" t="inlineStr">
         <is>
-          <t>test1@mail.com</t>
+          <t>bagas@mail.com</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="H8" t="inlineStr">
         <is>
-          <t>bagas@mail.com</t>
+          <t>test1@mail.com</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="H9" t="inlineStr">
         <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>21:59:21</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bawen</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21:59:21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>22:02:11</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tambak Sumur</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22:02:12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Juanda</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>bagas@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>22:11:07</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Solo</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>22:23:35</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22:23:35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Tanjung Priok</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>22:28:37</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tanjung Priok</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22:28:37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Juanda</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>22:30:36</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Tambak Oso</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22:30:36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Solo</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>40</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>22:34:40</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Tambak Sumur</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>22:34:40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>22:39:22</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Tambak Oso</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22:39:22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Juanda</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>9</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
         </is>
       </c>
     </row>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,142 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25227"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tpb\pengkom\tubes1\TubesPengkom11\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AD5294-EFD7-4460-95C6-EEA87F0393CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="database user" sheetId="1" r:id="rId1"/>
-    <sheet name="log" sheetId="2" r:id="rId2"/>
+    <sheet name="database user" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="log" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Saldo</t>
-  </si>
-  <si>
-    <t>bagas@mail.com</t>
-  </si>
-  <si>
-    <t>Bagas</t>
-  </si>
-  <si>
-    <t>test1@mail.com</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Time In</t>
-  </si>
-  <si>
-    <t>Gate In</t>
-  </si>
-  <si>
-    <t>KM In</t>
-  </si>
-  <si>
-    <t>Time Out</t>
-  </si>
-  <si>
-    <t>Gate Out</t>
-  </si>
-  <si>
-    <t>KM Out</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Golongan</t>
-  </si>
-  <si>
-    <t>Tol Masuk</t>
-  </si>
-  <si>
-    <t>Tol Keluar</t>
-  </si>
-  <si>
-    <t>13:17:48</t>
-  </si>
-  <si>
-    <t>Tambak Oso</t>
-  </si>
-  <si>
-    <t>Taman Mini</t>
-  </si>
-  <si>
-    <t>13:21:07</t>
-  </si>
-  <si>
-    <t>Tambak Sumur</t>
-  </si>
-  <si>
-    <t>13:23:16</t>
-  </si>
-  <si>
-    <t>Bawen</t>
-  </si>
-  <si>
-    <t>Tanjung Priok</t>
-  </si>
-  <si>
-    <t>13:29:26</t>
-  </si>
-  <si>
-    <t>Semarang</t>
-  </si>
-  <si>
-    <t>13:32:37</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -156,23 +56,82 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -438,219 +397,626 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col width="20.7109375" customWidth="1" min="1" max="1"/>
+    <col width="19.42578125" customWidth="1" min="2" max="2"/>
+    <col width="15.5703125" customWidth="1" min="4" max="4"/>
+    <col width="12.28515625" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Saldo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Bagas</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>123456</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>123456</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>12000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="A7:I21"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col width="19" customWidth="1" min="1" max="1"/>
+    <col width="20.7109375" customWidth="1" min="2" max="2"/>
+    <col width="20.28515625" customWidth="1" min="4" max="4"/>
+    <col width="18.140625" customWidth="1" min="5" max="5"/>
+    <col width="14.42578125" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Time In</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Gate In</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>KM In</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Time Out</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Gate Out</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>KM Out</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Jarak</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Golongan</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Tol Masuk</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Tol Keluar</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Tarif</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>13:17:48</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tambak Oso</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13:17:48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>13:21:07</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tambak Sumur</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13:21:07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>806.5</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>13:23:16</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bawen</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13:23:16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tanjung Priok</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13:29:26</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13:29:26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tanjung Priok</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13:32:37</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tambak Sumur</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13:32:37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>00:16:34</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tambak Sumur</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>00:16:34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Tanjung Priok</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>01:17:23</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Serpong</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>01:17:23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>01:35:35</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Serpong</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>01:35:35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Solo</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>40</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>19630</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>01:38:25</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bawen</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>01:38:25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>10590</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01:42:08</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tanjung Priok</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>01:42:09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Juanda</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>4.5</v>
-      </c>
-      <c r="G3">
-        <v>806.5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>7080</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01:46:44</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Serpong</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>01:46:44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Juanda</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>818.1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>7680</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -408,7 +408,7 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20.7109375" customWidth="1" min="1" max="1"/>
     <col width="19.42578125" customWidth="1" min="2" max="2"/>
@@ -476,7 +476,7 @@
         <v>123456</v>
       </c>
       <c r="E3" t="n">
-        <v>12000</v>
+        <v>58000</v>
       </c>
     </row>
   </sheetData>
@@ -494,13 +494,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
     <col width="20.7109375" customWidth="1" min="2" max="2"/>
@@ -1019,6 +1019,298 @@
         <v>7680</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>07:13:53</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tambak Sumur</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>07:13:53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Juanda</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>14</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>08:48:47</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tambak Sumur</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>08:48:47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>806.5</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>08:51:33</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tambak Sumur</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>08:51:33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>09:31:20</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tambak Sumur</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>09:31:20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>806.5</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>09:33:34</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Juanda</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>09:33:34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Tanjung Priok</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>821.9</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>699640</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -408,7 +408,7 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20.7109375" customWidth="1" min="1" max="1"/>
     <col width="19.42578125" customWidth="1" min="2" max="2"/>
@@ -458,7 +458,7 @@
         <v>123456</v>
       </c>
       <c r="E2" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="3">
@@ -494,13 +494,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A8" sqref="A8:L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
     <col width="20.7109375" customWidth="1" min="2" max="2"/>
@@ -762,41 +762,83 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13:31:23</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Solo</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>40</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13:31:23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Serpong</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>10.1</v>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>test1@mail.com</t>
+          <t>bagas@mail.com</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>19030</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01:17:23</t>
+          <t>13:34:36</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Serpong</t>
+          <t>Bawen</t>
         </is>
       </c>
       <c r="C9" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13:34:36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Tanjung Priok</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
         <v>12.1</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>01:17:23</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Taman Mini</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4.5</v>
+      <c r="G9" t="n">
+        <v>481.2</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -804,511 +846,20 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>Jakarta</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Jakarta</t>
-        </is>
-      </c>
       <c r="L9" t="n">
-        <v>4980</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>01:35:35</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Serpong</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>01:35:35</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Solo</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>40</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>bagas@mail.com</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Jakarta</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Semarang</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>19630</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>01:38:25</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Bawen</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>01:38:25</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Taman Mini</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>test1@mail.com</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Semarang</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Jakarta</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>10590</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>01:42:08</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Tanjung Priok</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>01:42:09</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Juanda</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>test1@mail.com</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Jakarta</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Surabaya</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>7080</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>01:46:44</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Serpong</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>01:46:44</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Juanda</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
-      </c>
-      <c r="G13" t="n">
-        <v>818.1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>bagas@mail.com</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Jakarta</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Surabaya</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>7680</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>07:13:53</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Tambak Sumur</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>07:13:53</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Juanda</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
-      </c>
-      <c r="G14" t="n">
-        <v>14</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>test1@mail.com</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Surabaya</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Surabaya</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>6300</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>08:48:47</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Tambak Sumur</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>08:48:47</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Taman Mini</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G15" t="n">
-        <v>806.5</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>test1@mail.com</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Surabaya</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Jakarta</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>08:51:33</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Tambak Sumur</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>08:51:33</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Taman Mini</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>bagas@mail.com</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Surabaya</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Jakarta</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>09:31:20</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Tambak Sumur</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>09:31:20</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Taman Mini</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G17" t="n">
-        <v>806.5</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>test1@mail.com</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Surabaya</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Jakarta</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>09:33:34</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Juanda</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>09:33:34</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Tanjung Priok</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>821.9</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>test1@mail.com</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Surabaya</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Jakarta</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>699640</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>bagas@mail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>bagas@mail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>test1@mail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>test1@mail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>bagas@mail.com</t>
-        </is>
+        <v>548070</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -402,7 +402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -458,7 +458,7 @@
         <v>123456</v>
       </c>
       <c r="E2" t="n">
-        <v>22000</v>
+        <v>67550</v>
       </c>
     </row>
     <row r="3">
@@ -477,6 +477,26 @@
       </c>
       <c r="E3" t="n">
         <v>58000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Kontol Bagas</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>624170</v>
       </c>
     </row>
   </sheetData>
@@ -494,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:L26"/>
@@ -862,6 +882,741 @@
         <v>548070</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>17:39:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tambak Sumur</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17:39:00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>806.5</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1047750</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>17:50:56</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tambak Sumur</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17:50:56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Juanda</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>8010</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>17:52:11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tambak Sumur</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17:52:11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Juanda</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>8010</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>18:00:09</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Solo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>40</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18:00:09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Bawen</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>25240</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>18:16:49</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Juanda</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18:16:49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Tambak Oso</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>9</v>
+      </c>
+      <c r="G15" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>9810</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>18:20:22</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tambak Oso</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>9</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18:20:22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Solo</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>40</v>
+      </c>
+      <c r="G16" t="n">
+        <v>400</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>353500</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>18:22:12</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18:22:12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Juanda</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="G17" t="n">
+        <v>363.8</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>339210</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>18:23:53</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bawen</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18:23:53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Tambak Sumur</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>379.1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>678390</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18:26:09</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18:26:09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Solo</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>40</v>
+      </c>
+      <c r="G19" t="n">
+        <v>40</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>18:28:13</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Solo</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>40</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18:28:13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>40</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>18:30:28</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18:30:28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Tanjung Priok</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>18:31:40</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Solo</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>40</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18:31:40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Serpong</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>496.1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>375830</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>18:36:51</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18:36:51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>3</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>848750</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>18:39:16</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Tambak Sumur</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18:39:16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>806.5</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1205700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -514,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:L26"/>
@@ -1617,6 +1617,116 @@
         <v>1205700</v>
       </c>
     </row>
+    <row r="25">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>18:56:17</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18:56:17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Juanda</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="G32" t="n">
+        <v>814.3</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1051260</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -458,7 +458,7 @@
         <v>123456</v>
       </c>
       <c r="E2" t="n">
-        <v>67550</v>
+        <v>14610</v>
       </c>
     </row>
     <row r="3">
@@ -476,7 +476,7 @@
         <v>123456</v>
       </c>
       <c r="E3" t="n">
-        <v>58000</v>
+        <v>48760</v>
       </c>
     </row>
     <row r="4">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>624170</v>
+        <v>199290</v>
       </c>
     </row>
   </sheetData>
@@ -514,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:L26"/>
@@ -1727,6 +1727,318 @@
         <v>1051260</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>20:38:24</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>20:38:24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Tambak Sumur</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>806.5</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>693850</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>20:41:52</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>20:41:52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G34" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>358150</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20:47:04</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Juanda</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>20:47:04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Serpong</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>819.9</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>2</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1052940</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>20:55:04</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20:55:04</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Bawen</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>9240</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>21:06:11</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Juanda</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>21:06:11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Tanjung Priok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>821.9</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>699640</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>21:09:58</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Bawen</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>21:09:58</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Solo</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>40</v>
+      </c>
+      <c r="G38" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>25240</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>199290</v>
+        <v>141300</v>
       </c>
     </row>
   </sheetData>
@@ -514,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:L26"/>
@@ -2039,6 +2039,58 @@
         <v>25240</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>22:22:37</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Bawen</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>22:22:37</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G39" t="n">
+        <v>473.6</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>3</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>857990</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="database user" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="log" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,10 +28,15 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
       <u val="single"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -42,7 +47,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -51,19 +63,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -140,10 +182,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -170,82 +212,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -257,233 +299,293 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="A4:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="20.7109375" customWidth="1" min="1" max="1"/>
-    <col width="19.42578125" customWidth="1" min="2" max="2"/>
-    <col width="15.5703125" customWidth="1" min="4" max="4"/>
-    <col width="12.28515625" customWidth="1" min="5" max="5"/>
+    <col width="20.71928571428571" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.43357142857143" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col width="15.57642857142857" bestFit="1" customWidth="1" style="11" min="4" max="4"/>
+    <col width="12.29071428571429" bestFit="1" customWidth="1" style="8" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Mail</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>Saldo</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="10" t="inlineStr">
         <is>
           <t>bagas@mail.com</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Bagas</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="4" t="n">
         <v>123456</v>
       </c>
-      <c r="E2" t="n">
-        <v>4900</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="E2" s="4" t="n">
+        <v>14610</v>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="10" t="inlineStr">
         <is>
           <t>test1@mail.com</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>Test</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="4" t="n">
         <v>123456</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="4" t="n">
         <v>48760</v>
       </c>
     </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>Zaki</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="11" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>291690</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>emailbaru@mail.com</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Zaki Yudhistira</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>241850</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -491,486 +593,1919 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:L39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="20.7109375" customWidth="1" min="2" max="2"/>
-    <col width="20.28515625" customWidth="1" min="4" max="4"/>
-    <col width="18.140625" customWidth="1" min="5" max="5"/>
-    <col width="14.42578125" customWidth="1" min="8" max="8"/>
+    <col width="19.005" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="20.71928571428571" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
+    <col width="20.29071428571428" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="18.14785714285714" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="7" max="7"/>
+    <col width="14.43357142857143" bestFit="1" customWidth="1" style="6" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Time In</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Gate In</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>KM In</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Time Out</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Gate Out</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>KM Out</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>Jarak</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>User</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="8" t="inlineStr">
         <is>
           <t>Golongan</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>Tol Masuk</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>Tol Keluar</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="8" t="inlineStr">
         <is>
           <t>Tarif</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>13:17:48</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Tambak Oso</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="C2" s="7" t="n"/>
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>13:17:48</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>Taman Mini</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="F2" s="7" t="n"/>
+      <c r="G2" s="7" t="n"/>
+      <c r="H2" s="6" t="inlineStr">
         <is>
           <t>test1@mail.com</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="I2" s="8" t="n"/>
+      <c r="J2" s="6" t="n"/>
+      <c r="K2" s="6" t="n"/>
+      <c r="L2" s="8" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>13:21:07</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>Tambak Sumur</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>13:21:07</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>Taman Mini</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="5" t="n">
         <v>4.5</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="5" t="n">
         <v>806.5</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="6" t="inlineStr">
         <is>
           <t>test1@mail.com</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="I3" s="8" t="n"/>
+      <c r="J3" s="6" t="n"/>
+      <c r="K3" s="6" t="n"/>
+      <c r="L3" s="8" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>13:23:16</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>Bawen</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="C4" s="7" t="n"/>
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>13:23:16</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>Tanjung Priok</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="F4" s="7" t="n"/>
+      <c r="G4" s="7" t="n"/>
+      <c r="H4" s="6" t="inlineStr">
         <is>
           <t>test1@mail.com</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="I4" s="8" t="n"/>
+      <c r="J4" s="6" t="n"/>
+      <c r="K4" s="6" t="n"/>
+      <c r="L4" s="8" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>13:29:26</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Semarang</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>13:29:26</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>Tanjung Priok</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="F5" s="7" t="n"/>
+      <c r="G5" s="7" t="n"/>
+      <c r="H5" s="6" t="inlineStr">
         <is>
           <t>bagas@mail.com</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="I5" s="8" t="n"/>
+      <c r="J5" s="6" t="n"/>
+      <c r="K5" s="6" t="n"/>
+      <c r="L5" s="8" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>13:32:37</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Tambak Sumur</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>13:32:37</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>Taman Mini</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="F6" s="7" t="n"/>
+      <c r="G6" s="7" t="n"/>
+      <c r="H6" s="6" t="inlineStr">
         <is>
           <t>test1@mail.com</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="I6" s="8" t="n"/>
+      <c r="J6" s="6" t="n"/>
+      <c r="K6" s="6" t="n"/>
+      <c r="L6" s="8" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>00:16:34</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>Tambak Sumur</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>00:16:34</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>Tanjung Priok</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="5" t="n">
         <v>10.1</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="G7" s="7" t="n"/>
+      <c r="H7" s="6" t="inlineStr">
         <is>
           <t>bagas@mail.com</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="6" t="inlineStr">
         <is>
           <t>Surabaya</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K7" s="6" t="inlineStr">
         <is>
           <t>Jakarta</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="L7" s="8" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>13:31:23</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>Solo</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>13:31:23</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>Serpong</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="5" t="n">
         <v>10.1</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="G8" s="7" t="n"/>
+      <c r="H8" s="6" t="inlineStr">
         <is>
           <t>bagas@mail.com</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Semarang</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="J8" s="6" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K8" s="6" t="inlineStr">
         <is>
           <t>Jakarta</t>
         </is>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="4" t="n">
         <v>19030</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>13:34:36</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>Bawen</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="5" t="n">
         <v>23.1</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t>13:34:36</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="6" t="inlineStr">
         <is>
           <t>Tanjung Priok</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="5" t="n">
         <v>12.1</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="5" t="n">
         <v>481.2</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" s="6" t="inlineStr">
         <is>
           <t>bagas@mail.com</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Semarang</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="J9" s="6" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K9" s="6" t="inlineStr">
         <is>
           <t>Jakarta</t>
         </is>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="4" t="n">
         <v>548070</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>17:39:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>Tambak Sumur</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t>17:39:00</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="6" t="inlineStr">
         <is>
           <t>Taman Mini</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="5" t="n">
         <v>4.5</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="5" t="n">
         <v>806.5</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" s="6" t="inlineStr">
         <is>
           <t>zaki@mail.com</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" s="6" t="inlineStr">
         <is>
           <t>Surabaya</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K10" s="6" t="inlineStr">
         <is>
           <t>Jakarta</t>
         </is>
       </c>
-      <c r="L10" t="n">
+      <c r="L10" s="4" t="n">
         <v>1047750</v>
       </c>
     </row>
-    <row r="11">
-      <c r="H11" t="inlineStr">
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="7" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="6" t="n"/>
+      <c r="F11" s="7" t="n"/>
+      <c r="G11" s="7" t="n"/>
+      <c r="H11" s="6" t="inlineStr">
         <is>
           <t>zaki@mail.com</t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>22:28:26</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Semarang</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="I11" s="8" t="n"/>
+      <c r="J11" s="6" t="n"/>
+      <c r="K11" s="6" t="n"/>
+      <c r="L11" s="8" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>17:50:56</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>Tambak Sumur</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>17:50:56</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>Juanda</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="K12" s="6" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="L12" s="4" t="n">
+        <v>8010</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>17:52:11</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>Tambak Sumur</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>17:52:11</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>Juanda</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H13" s="6" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="K13" s="6" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="L13" s="4" t="n">
+        <v>8010</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>18:00:09</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>Solo</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>18:00:09</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>Bawen</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H14" s="6" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K14" s="6" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="L14" s="4" t="n">
+        <v>25240</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>18:16:49</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>Juanda</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>18:16:49</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>Tambak Oso</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+      <c r="I15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="K15" s="6" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="L15" s="4" t="n">
+        <v>9810</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>18:20:22</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>Tambak Oso</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>18:20:22</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>Solo</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>400</v>
+      </c>
+      <c r="H16" s="6" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="K16" s="6" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="L16" s="4" t="n">
+        <v>353500</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>18:22:12</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>22:28:26</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>18:22:12</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="inlineStr">
         <is>
           <t>Juanda</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="F17" s="5" t="n">
         <v>12.8</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G17" s="5" t="n">
         <v>363.8</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H17" s="6" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K17" s="6" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="L17" s="4" t="n">
+        <v>339210</v>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>18:23:53</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t>Bawen</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D18" s="6" t="inlineStr">
+        <is>
+          <t>18:23:53</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="inlineStr">
+        <is>
+          <t>Tambak Sumur</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>379.1</v>
+      </c>
+      <c r="H18" s="6" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I18" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" s="6" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K18" s="6" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="L18" s="4" t="n">
+        <v>678390</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>18:26:09</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>18:26:09</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>Solo</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I19" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" s="6" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K19" s="6" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="L19" s="4" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>18:28:13</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
+        <is>
+          <t>Solo</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D20" s="6" t="inlineStr">
+        <is>
+          <t>18:28:13</t>
+        </is>
+      </c>
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="H20" s="6" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K20" s="6" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="L20" s="4" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>18:30:28</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>18:30:28</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>Tanjung Priok</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="H21" s="6" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="K21" s="6" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="n">
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>18:31:40</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="inlineStr">
+        <is>
+          <t>Solo</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D22" s="6" t="inlineStr">
+        <is>
+          <t>18:31:40</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="inlineStr">
+        <is>
+          <t>Serpong</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>496.1</v>
+      </c>
+      <c r="H22" s="6" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="6" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K22" s="6" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L22" s="4" t="n">
+        <v>375830</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>18:36:51</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6" t="inlineStr">
+        <is>
+          <t>18:36:51</t>
+        </is>
+      </c>
+      <c r="E23" s="6" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="H23" s="6" t="inlineStr">
         <is>
           <t>bagas@mail.com</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="I23" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J23" s="6" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K23" s="6" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L23" s="4" t="n">
+        <v>848750</v>
+      </c>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>18:39:16</t>
+        </is>
+      </c>
+      <c r="B24" s="6" t="inlineStr">
+        <is>
+          <t>Tambak Sumur</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" s="6" t="inlineStr">
+        <is>
+          <t>18:39:16</t>
+        </is>
+      </c>
+      <c r="E24" s="6" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>806.5</v>
+      </c>
+      <c r="H24" s="6" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" s="6" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="K24" s="6" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="n">
+        <v>1205700</v>
+      </c>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="7" t="n"/>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="n"/>
+      <c r="F25" s="7" t="n"/>
+      <c r="G25" s="7" t="n"/>
+      <c r="H25" s="6" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+      <c r="I25" s="8" t="n"/>
+      <c r="J25" s="6" t="n"/>
+      <c r="K25" s="6" t="n"/>
+      <c r="L25" s="8" t="n"/>
+    </row>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="A26" s="6" t="n"/>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="7" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
+      <c r="F26" s="7" t="n"/>
+      <c r="G26" s="7" t="n"/>
+      <c r="H26" s="6" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I26" s="8" t="n"/>
+      <c r="J26" s="6" t="n"/>
+      <c r="K26" s="6" t="n"/>
+      <c r="L26" s="8" t="n"/>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="6" t="n"/>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="7" t="n"/>
+      <c r="D27" s="6" t="n"/>
+      <c r="E27" s="6" t="n"/>
+      <c r="F27" s="7" t="n"/>
+      <c r="G27" s="7" t="n"/>
+      <c r="H27" s="6" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I27" s="8" t="n"/>
+      <c r="J27" s="6" t="n"/>
+      <c r="K27" s="6" t="n"/>
+      <c r="L27" s="8" t="n"/>
+    </row>
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="A28" s="6" t="n"/>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="7" t="n"/>
+      <c r="D28" s="6" t="n"/>
+      <c r="E28" s="6" t="n"/>
+      <c r="F28" s="7" t="n"/>
+      <c r="G28" s="7" t="n"/>
+      <c r="H28" s="6" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I28" s="8" t="n"/>
+      <c r="J28" s="6" t="n"/>
+      <c r="K28" s="6" t="n"/>
+      <c r="L28" s="8" t="n"/>
+    </row>
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="A29" s="6" t="n"/>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="7" t="n"/>
+      <c r="D29" s="6" t="n"/>
+      <c r="E29" s="6" t="n"/>
+      <c r="F29" s="7" t="n"/>
+      <c r="G29" s="7" t="n"/>
+      <c r="H29" s="6" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="6" t="n"/>
+      <c r="K29" s="6" t="n"/>
+      <c r="L29" s="8" t="n"/>
+    </row>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="A30" s="6" t="n"/>
+      <c r="B30" s="6" t="n"/>
+      <c r="C30" s="7" t="n"/>
+      <c r="D30" s="6" t="n"/>
+      <c r="E30" s="6" t="n"/>
+      <c r="F30" s="7" t="n"/>
+      <c r="G30" s="7" t="n"/>
+      <c r="H30" s="6" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+      <c r="I30" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" s="6" t="n"/>
+      <c r="K30" s="6" t="n"/>
+      <c r="L30" s="8" t="n"/>
+    </row>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="A31" s="6" t="n"/>
+      <c r="B31" s="6" t="n"/>
+      <c r="C31" s="7" t="n"/>
+      <c r="D31" s="6" t="n"/>
+      <c r="E31" s="6" t="n"/>
+      <c r="F31" s="7" t="n"/>
+      <c r="G31" s="7" t="n"/>
+      <c r="H31" s="6" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="6" t="n"/>
+      <c r="K31" s="6" t="n"/>
+      <c r="L31" s="8" t="n"/>
+    </row>
+    <row r="32" ht="18.75" customHeight="1">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>18:56:17</t>
+        </is>
+      </c>
+      <c r="B32" s="6" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D32" s="6" t="inlineStr">
+        <is>
+          <t>18:56:17</t>
+        </is>
+      </c>
+      <c r="E32" s="6" t="inlineStr">
+        <is>
+          <t>Juanda</t>
+        </is>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>814.3</v>
+      </c>
+      <c r="H32" s="6" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I32" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Semarang</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
+      <c r="J32" s="6" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="K32" s="6" t="inlineStr">
         <is>
           <t>Surabaya</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>514710</v>
+      <c r="L32" s="4" t="n">
+        <v>1051260</v>
+      </c>
+    </row>
+    <row r="33" ht="18.75" customHeight="1">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>20:38:24</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D33" s="6" t="inlineStr">
+        <is>
+          <t>20:38:24</t>
+        </is>
+      </c>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>Tambak Sumur</t>
+        </is>
+      </c>
+      <c r="F33" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>806.5</v>
+      </c>
+      <c r="H33" s="6" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+      <c r="I33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="6" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="K33" s="6" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="L33" s="4" t="n">
+        <v>693850</v>
+      </c>
+    </row>
+    <row r="34" ht="18.75" customHeight="1">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>20:41:52</t>
+        </is>
+      </c>
+      <c r="B34" s="6" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6" t="inlineStr">
+        <is>
+          <t>20:41:52</t>
+        </is>
+      </c>
+      <c r="E34" s="6" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="H34" s="6" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+      <c r="I34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" s="6" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K34" s="6" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L34" s="4" t="n">
+        <v>358150</v>
+      </c>
+    </row>
+    <row r="35" ht="18.75" customHeight="1">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>20:47:04</t>
+        </is>
+      </c>
+      <c r="B35" s="6" t="inlineStr">
+        <is>
+          <t>Juanda</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D35" s="6" t="inlineStr">
+        <is>
+          <t>20:47:04</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="inlineStr">
+        <is>
+          <t>Serpong</t>
+        </is>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>819.9</v>
+      </c>
+      <c r="H35" s="6" t="inlineStr">
+        <is>
+          <t>bagas@mail.com</t>
+        </is>
+      </c>
+      <c r="I35" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J35" s="6" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="K35" s="6" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L35" s="4" t="n">
+        <v>1052940</v>
+      </c>
+    </row>
+    <row r="36" ht="18.75" customHeight="1">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>20:55:04</t>
+        </is>
+      </c>
+      <c r="B36" s="6" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6" t="inlineStr">
+        <is>
+          <t>20:55:04</t>
+        </is>
+      </c>
+      <c r="E36" s="6" t="inlineStr">
+        <is>
+          <t>Bawen</t>
+        </is>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="H36" s="6" t="inlineStr">
+        <is>
+          <t>test1@mail.com</t>
+        </is>
+      </c>
+      <c r="I36" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" s="6" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K36" s="6" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="L36" s="4" t="n">
+        <v>9240</v>
+      </c>
+    </row>
+    <row r="37" ht="18.75" customHeight="1">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>21:06:11</t>
+        </is>
+      </c>
+      <c r="B37" s="6" t="inlineStr">
+        <is>
+          <t>Juanda</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D37" s="6" t="inlineStr">
+        <is>
+          <t>21:06:11</t>
+        </is>
+      </c>
+      <c r="E37" s="6" t="inlineStr">
+        <is>
+          <t>Tanjung Priok</t>
+        </is>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>821.9</v>
+      </c>
+      <c r="H37" s="6" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="6" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="K37" s="6" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L37" s="4" t="n">
+        <v>699640</v>
+      </c>
+    </row>
+    <row r="38" ht="18.75" customHeight="1">
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>21:09:58</t>
+        </is>
+      </c>
+      <c r="B38" s="6" t="inlineStr">
+        <is>
+          <t>Bawen</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D38" s="6" t="inlineStr">
+        <is>
+          <t>21:09:58</t>
+        </is>
+      </c>
+      <c r="E38" s="6" t="inlineStr">
+        <is>
+          <t>Solo</t>
+        </is>
+      </c>
+      <c r="F38" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="H38" s="6" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I38" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" s="6" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K38" s="6" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="L38" s="4" t="n">
+        <v>25240</v>
+      </c>
+    </row>
+    <row r="39" ht="18.75" customHeight="1">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>22:22:37</t>
+        </is>
+      </c>
+      <c r="B39" s="6" t="inlineStr">
+        <is>
+          <t>Bawen</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D39" s="6" t="inlineStr">
+        <is>
+          <t>22:22:37</t>
+        </is>
+      </c>
+      <c r="E39" s="6" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>473.6</v>
+      </c>
+      <c r="H39" s="6" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I39" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J39" s="6" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K39" s="6" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L39" s="4" t="n">
+        <v>857990</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>22:33:46</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>22:33:46</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G40" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>emailbaru@mail.com</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>358150</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>22:41:47</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Tambak Sumur</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>22:41:47</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Juanda</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="G41" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>8010</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>22:42:05</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Tambak Sumur</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>22:42:05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G42" t="n">
+        <v>806.5</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>693850</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>22:44:30</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Tambak Sumur</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>22:44:30</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Taman Mini</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G43" t="n">
+        <v>806.5</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>zaki@mail.com</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1047750</v>
       </c>
     </row>
   </sheetData>
